--- a/샘플/양식샘플-테이블명세-양식.xlsx
+++ b/샘플/양식샘플-테이블명세-양식.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="테이블명세" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -115,6 +115,157 @@
   </si>
   <si>
     <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구입한 도서 정보를 기록한다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김대영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isbn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인가액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요약</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버링크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지링크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(13)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글문자열(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>author</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>publisher</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>discount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pubdate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(13)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBL_BOOKS</t>
+  </si>
+  <si>
+    <t>도서정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글문자열(2000)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(2000)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -666,7 +817,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1023,7 +1174,7 @@
   <dimension ref="B1:L35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="J3" sqref="J3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1678,7 +1829,9 @@
       <c r="B2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="D2" s="32" t="s">
         <v>14</v>
       </c>
@@ -1689,7 +1842,9 @@
         <v>12</v>
       </c>
       <c r="I2" s="34"/>
-      <c r="J2" s="36"/>
+      <c r="J2" s="36">
+        <v>44719</v>
+      </c>
       <c r="K2" s="37"/>
       <c r="L2" s="20" t="s">
         <v>11</v>
@@ -1699,7 +1854,9 @@
       <c r="B3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" s="33"/>
       <c r="E3" s="33"/>
       <c r="F3" s="33"/>
@@ -1708,7 +1865,9 @@
         <v>13</v>
       </c>
       <c r="I3" s="35"/>
-      <c r="J3" s="38"/>
+      <c r="J3" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="K3" s="39"/>
       <c r="L3" s="19"/>
     </row>
@@ -1716,7 +1875,9 @@
       <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="30"/>
+      <c r="C4" s="30" t="s">
+        <v>23</v>
+      </c>
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
@@ -1762,74 +1923,122 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="15"/>
     </row>
-    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9">
         <v>2</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="18"/>
     </row>
-    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9">
         <v>3</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="C8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="18"/>
     </row>
-    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9">
         <v>4</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="C9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="18"/>
     </row>
-    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9">
         <v>5</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="C10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -1837,14 +2046,22 @@
       <c r="K10" s="12"/>
       <c r="L10" s="18"/>
     </row>
-    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9">
         <v>6</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="C11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -1852,14 +2069,22 @@
       <c r="K11" s="12"/>
       <c r="L11" s="18"/>
     </row>
-    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="9">
         <v>7</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="C12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
@@ -1867,14 +2092,22 @@
       <c r="K12" s="12"/>
       <c r="L12" s="18"/>
     </row>
-    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B13" s="9">
         <v>8</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="C13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -1882,14 +2115,22 @@
       <c r="K13" s="12"/>
       <c r="L13" s="18"/>
     </row>
-    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="9">
         <v>9</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="C14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -1901,10 +2142,18 @@
       <c r="B15" s="9">
         <v>10</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="C15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
